--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lrrc4b</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lrrc4b</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.038393</v>
       </c>
       <c r="I2">
-        <v>0.04621970642727557</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.06776355385802006</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3105913333333333</v>
+        <v>0.1255626666666667</v>
       </c>
       <c r="N2">
-        <v>0.931774</v>
+        <v>0.376688</v>
       </c>
       <c r="O2">
-        <v>0.03128659259739168</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="P2">
-        <v>0.03928326902580845</v>
+        <v>0.02907345870642374</v>
       </c>
       <c r="Q2">
-        <v>0.003974844353555555</v>
+        <v>0.001606909153777778</v>
       </c>
       <c r="R2">
-        <v>0.035773599182</v>
+        <v>0.014462182384</v>
       </c>
       <c r="S2">
-        <v>0.001446057124961216</v>
+        <v>0.02744849445093922</v>
       </c>
       <c r="T2">
-        <v>0.002661973916349462</v>
+        <v>0.02907345870642374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.038393</v>
       </c>
       <c r="I3">
-        <v>0.04621970642727557</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.06776355385802006</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.393572666666667</v>
+        <v>3.393572666666666</v>
       </c>
       <c r="N3">
         <v>10.180718</v>
       </c>
       <c r="O3">
-        <v>0.3418425244908446</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="P3">
-        <v>0.4292155437583476</v>
+        <v>0.7857661629113346</v>
       </c>
       <c r="Q3">
-        <v>0.04342981179711112</v>
+        <v>0.0434298117971111</v>
       </c>
       <c r="R3">
-        <v>0.390868306174</v>
+        <v>0.3908683061739999</v>
       </c>
       <c r="S3">
-        <v>0.0157998611263256</v>
+        <v>0.7418483772500767</v>
       </c>
       <c r="T3">
-        <v>0.02908517061616815</v>
+        <v>0.7857661629113346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.038393</v>
       </c>
       <c r="I4">
-        <v>0.04621970642727557</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.06776355385802006</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1456443333333333</v>
+        <v>0.2723486666666667</v>
       </c>
       <c r="N4">
-        <v>0.436933</v>
+        <v>0.8170460000000001</v>
       </c>
       <c r="O4">
-        <v>0.01467109488283225</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="P4">
-        <v>0.01842094390405137</v>
+        <v>0.06306108275880487</v>
       </c>
       <c r="Q4">
-        <v>0.001863907629888889</v>
+        <v>0.003485427453111111</v>
       </c>
       <c r="R4">
-        <v>0.016775168669</v>
+        <v>0.031368847078</v>
       </c>
       <c r="S4">
-        <v>0.0006780936984512115</v>
+        <v>0.05953649332381727</v>
       </c>
       <c r="T4">
-        <v>0.001248268624357751</v>
+        <v>0.06306108275880487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.038393</v>
       </c>
       <c r="I5">
-        <v>0.04621970642727557</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.06776355385802006</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0625345</v>
+        <v>0.7670265000000001</v>
       </c>
       <c r="N5">
-        <v>12.125069</v>
+        <v>1.534053</v>
       </c>
       <c r="O5">
-        <v>0.6106933022679266</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="P5">
-        <v>0.5111887082956706</v>
+        <v>0.1184009752075072</v>
       </c>
       <c r="Q5">
-        <v>0.07758629568616666</v>
+        <v>0.0098161494715</v>
       </c>
       <c r="R5">
-        <v>0.465517774117</v>
+        <v>0.058896896829</v>
       </c>
       <c r="S5">
-        <v>0.02822606514792703</v>
+        <v>0.167675019875653</v>
       </c>
       <c r="T5">
-        <v>0.03463996356620538</v>
+        <v>0.1184009752075072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,350 +794,40 @@
         <v>0.038393</v>
       </c>
       <c r="I6">
-        <v>0.04621970642727557</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.06776355385802006</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01495533333333333</v>
+        <v>0.01597233333333333</v>
       </c>
       <c r="N6">
-        <v>0.044866</v>
+        <v>0.047917</v>
       </c>
       <c r="O6">
-        <v>0.001506485761004895</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="P6">
-        <v>0.001891535016121851</v>
+        <v>0.003698320415929645</v>
       </c>
       <c r="Q6">
-        <v>0.0001913933708888889</v>
+        <v>0.0002044085978888889</v>
       </c>
       <c r="R6">
-        <v>0.001722540338</v>
+        <v>0.001839677381</v>
       </c>
       <c r="S6">
-        <v>6.962932961051707E-05</v>
+        <v>0.0034916150995138</v>
       </c>
       <c r="T6">
-        <v>0.0001281771349393039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.26409</v>
-      </c>
-      <c r="H7">
-        <v>0.52818</v>
-      </c>
-      <c r="I7">
-        <v>0.9537802935727245</v>
-      </c>
-      <c r="J7">
-        <v>0.9322364461419799</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3105913333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.931774</v>
-      </c>
-      <c r="O7">
-        <v>0.03128659259739168</v>
-      </c>
-      <c r="P7">
-        <v>0.03928326902580845</v>
-      </c>
-      <c r="Q7">
-        <v>0.08202406522</v>
-      </c>
-      <c r="R7">
-        <v>0.49214439132</v>
-      </c>
-      <c r="S7">
-        <v>0.02984053547243047</v>
-      </c>
-      <c r="T7">
-        <v>0.03662129510945898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.26409</v>
-      </c>
-      <c r="H8">
-        <v>0.52818</v>
-      </c>
-      <c r="I8">
-        <v>0.9537802935727245</v>
-      </c>
-      <c r="J8">
-        <v>0.9322364461419799</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3.393572666666667</v>
-      </c>
-      <c r="N8">
-        <v>10.180718</v>
-      </c>
-      <c r="O8">
-        <v>0.3418425244908446</v>
-      </c>
-      <c r="P8">
-        <v>0.4292155437583476</v>
-      </c>
-      <c r="Q8">
-        <v>0.89620860554</v>
-      </c>
-      <c r="R8">
-        <v>5.37725163324</v>
-      </c>
-      <c r="S8">
-        <v>0.326042663364519</v>
-      </c>
-      <c r="T8">
-        <v>0.4001303731421794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.26409</v>
-      </c>
-      <c r="H9">
-        <v>0.52818</v>
-      </c>
-      <c r="I9">
-        <v>0.9537802935727245</v>
-      </c>
-      <c r="J9">
-        <v>0.9322364461419799</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1456443333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.436933</v>
-      </c>
-      <c r="O9">
-        <v>0.01467109488283225</v>
-      </c>
-      <c r="P9">
-        <v>0.01842094390405137</v>
-      </c>
-      <c r="Q9">
-        <v>0.03846321199</v>
-      </c>
-      <c r="R9">
-        <v>0.23077927194</v>
-      </c>
-      <c r="S9">
-        <v>0.01399300118438104</v>
-      </c>
-      <c r="T9">
-        <v>0.01717267527969362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.26409</v>
-      </c>
-      <c r="H10">
-        <v>0.52818</v>
-      </c>
-      <c r="I10">
-        <v>0.9537802935727245</v>
-      </c>
-      <c r="J10">
-        <v>0.9322364461419799</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.0625345</v>
-      </c>
-      <c r="N10">
-        <v>12.125069</v>
-      </c>
-      <c r="O10">
-        <v>0.6106933022679266</v>
-      </c>
-      <c r="P10">
-        <v>0.5111887082956706</v>
-      </c>
-      <c r="Q10">
-        <v>1.601054736105</v>
-      </c>
-      <c r="R10">
-        <v>6.404218944419999</v>
-      </c>
-      <c r="S10">
-        <v>0.5824672371199997</v>
-      </c>
-      <c r="T10">
-        <v>0.4765487447294652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.26409</v>
-      </c>
-      <c r="H11">
-        <v>0.52818</v>
-      </c>
-      <c r="I11">
-        <v>0.9537802935727245</v>
-      </c>
-      <c r="J11">
-        <v>0.9322364461419799</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.01495533333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.044866</v>
-      </c>
-      <c r="O11">
-        <v>0.001506485761004895</v>
-      </c>
-      <c r="P11">
-        <v>0.001891535016121851</v>
-      </c>
-      <c r="Q11">
-        <v>0.003949553979999999</v>
-      </c>
-      <c r="R11">
-        <v>0.02369732388</v>
-      </c>
-      <c r="S11">
-        <v>0.001436856431394378</v>
-      </c>
-      <c r="T11">
-        <v>0.001763357881182547</v>
+        <v>0.003698320415929645</v>
       </c>
     </row>
   </sheetData>
